--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3527,28 +3527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2158.533590603502</v>
+        <v>2252.178697098712</v>
       </c>
       <c r="AB2" t="n">
-        <v>2953.40088644489</v>
+        <v>3081.530252482336</v>
       </c>
       <c r="AC2" t="n">
-        <v>2671.532450966767</v>
+        <v>2787.433330140178</v>
       </c>
       <c r="AD2" t="n">
-        <v>2158533.590603502</v>
+        <v>2252178.697098712</v>
       </c>
       <c r="AE2" t="n">
-        <v>2953400.886444889</v>
+        <v>3081530.252482336</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.119371212248886e-06</v>
+        <v>1.892352573253895e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.10138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>2671532.450966767</v>
+        <v>2787433.330140178</v>
       </c>
     </row>
     <row r="3">
@@ -3633,28 +3633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>746.1262685052269</v>
+        <v>798.198689528131</v>
       </c>
       <c r="AB3" t="n">
-        <v>1020.882877336669</v>
+        <v>1092.130661053289</v>
       </c>
       <c r="AC3" t="n">
-        <v>923.4512483417743</v>
+        <v>987.8992435773723</v>
       </c>
       <c r="AD3" t="n">
-        <v>746126.2685052269</v>
+        <v>798198.689528131</v>
       </c>
       <c r="AE3" t="n">
-        <v>1020882.877336669</v>
+        <v>1092130.661053289</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.085563775617109e-06</v>
+        <v>3.525749040432385e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.715277777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>923451.2483417743</v>
+        <v>987899.2435773723</v>
       </c>
     </row>
     <row r="4">
@@ -3739,28 +3739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>579.4439474899701</v>
+        <v>621.0166329622729</v>
       </c>
       <c r="AB4" t="n">
-        <v>792.8207722185766</v>
+        <v>849.7023545392232</v>
       </c>
       <c r="AC4" t="n">
-        <v>717.1550704489774</v>
+        <v>768.6079543867435</v>
       </c>
       <c r="AD4" t="n">
-        <v>579443.9474899701</v>
+        <v>621016.6329622729</v>
       </c>
       <c r="AE4" t="n">
-        <v>792820.7722185766</v>
+        <v>849702.3545392231</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.440062934455216e-06</v>
+        <v>4.125047457349753e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.304166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>717155.0704489774</v>
+        <v>768607.9543867435</v>
       </c>
     </row>
     <row r="5">
@@ -3845,28 +3845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>507.2368434617925</v>
+        <v>548.8947802801158</v>
       </c>
       <c r="AB5" t="n">
-        <v>694.0238269346194</v>
+        <v>751.0220539079151</v>
       </c>
       <c r="AC5" t="n">
-        <v>627.7871669605374</v>
+        <v>679.3455631490157</v>
       </c>
       <c r="AD5" t="n">
-        <v>507236.8434617926</v>
+        <v>548894.7802801158</v>
       </c>
       <c r="AE5" t="n">
-        <v>694023.8269346193</v>
+        <v>751022.053907915</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.622564353264463e-06</v>
+        <v>4.43357516087388e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.72638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>627787.1669605374</v>
+        <v>679345.5631490157</v>
       </c>
     </row>
     <row r="6">
@@ -3951,28 +3951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>470.3762151858277</v>
+        <v>511.8635598035588</v>
       </c>
       <c r="AB6" t="n">
-        <v>643.5894891512945</v>
+        <v>700.3543043497433</v>
       </c>
       <c r="AC6" t="n">
-        <v>582.1662115902153</v>
+        <v>633.5134724960426</v>
       </c>
       <c r="AD6" t="n">
-        <v>470376.2151858277</v>
+        <v>511863.5598035587</v>
       </c>
       <c r="AE6" t="n">
-        <v>643589.4891512945</v>
+        <v>700354.3043497433</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.738396588703746e-06</v>
+        <v>4.629395302039472e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.398611111111112</v>
       </c>
       <c r="AH6" t="n">
-        <v>582166.2115902153</v>
+        <v>633513.4724960426</v>
       </c>
     </row>
     <row r="7">
@@ -4057,28 +4057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>445.2033066458808</v>
+        <v>476.4468487681743</v>
       </c>
       <c r="AB7" t="n">
-        <v>609.1468051365933</v>
+        <v>651.8955978361133</v>
       </c>
       <c r="AC7" t="n">
-        <v>551.0106889972666</v>
+        <v>589.6795969198519</v>
       </c>
       <c r="AD7" t="n">
-        <v>445203.3066458808</v>
+        <v>476446.8487681744</v>
       </c>
       <c r="AE7" t="n">
-        <v>609146.8051365933</v>
+        <v>651895.5978361133</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.818487139404207e-06</v>
+        <v>4.76479235178747e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.188888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>551010.6889972666</v>
+        <v>589679.5969198518</v>
       </c>
     </row>
     <row r="8">
@@ -4163,28 +4163,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>425.0367308296449</v>
+        <v>456.2802729519384</v>
       </c>
       <c r="AB8" t="n">
-        <v>581.5540064182851</v>
+        <v>624.3027991178053</v>
       </c>
       <c r="AC8" t="n">
-        <v>526.0513082618977</v>
+        <v>564.7202161844829</v>
       </c>
       <c r="AD8" t="n">
-        <v>425036.7308296448</v>
+        <v>456280.2729519384</v>
       </c>
       <c r="AE8" t="n">
-        <v>581554.0064182851</v>
+        <v>624302.7991178053</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.875382066131311e-06</v>
+        <v>4.860976048329764e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.047222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>526051.3082618976</v>
+        <v>564720.2161844829</v>
       </c>
     </row>
     <row r="9">
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>396.1012169600942</v>
+        <v>437.6738129238458</v>
       </c>
       <c r="AB9" t="n">
-        <v>541.9631597971879</v>
+        <v>598.8446196482859</v>
       </c>
       <c r="AC9" t="n">
-        <v>490.2389564762157</v>
+        <v>541.6917296327553</v>
       </c>
       <c r="AD9" t="n">
-        <v>396101.2169600942</v>
+        <v>437673.8129238458</v>
       </c>
       <c r="AE9" t="n">
-        <v>541963.1597971879</v>
+        <v>598844.6196482859</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.926149846903187e-06</v>
+        <v>4.946801500629041e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.923611111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>490238.9564762157</v>
+        <v>541691.7296327553</v>
       </c>
     </row>
     <row r="10">
@@ -4375,28 +4375,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>382.0027733839046</v>
+        <v>423.5753693476564</v>
       </c>
       <c r="AB10" t="n">
-        <v>522.6730473168121</v>
+        <v>579.5545071679099</v>
       </c>
       <c r="AC10" t="n">
-        <v>472.7898652571239</v>
+        <v>524.2426384136635</v>
       </c>
       <c r="AD10" t="n">
-        <v>382002.7733839047</v>
+        <v>423575.3693476564</v>
       </c>
       <c r="AE10" t="n">
-        <v>522673.0473168121</v>
+        <v>579554.50716791</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.956056154541794e-06</v>
+        <v>4.997359597529477e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.854166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>472789.865257124</v>
+        <v>524242.6384136634</v>
       </c>
     </row>
     <row r="11">
@@ -4481,28 +4481,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>378.1944660333888</v>
+        <v>419.7670619971405</v>
       </c>
       <c r="AB11" t="n">
-        <v>517.4623531891735</v>
+        <v>574.3438130402715</v>
       </c>
       <c r="AC11" t="n">
-        <v>468.0764724637721</v>
+        <v>519.5292456203116</v>
       </c>
       <c r="AD11" t="n">
-        <v>378194.4660333888</v>
+        <v>419767.0619971405</v>
       </c>
       <c r="AE11" t="n">
-        <v>517462.3531891736</v>
+        <v>574343.8130402715</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.96218330049702e-06</v>
+        <v>5.007717841772494e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.840277777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>468076.4724637721</v>
+        <v>519529.2456203116</v>
       </c>
     </row>
     <row r="12">
@@ -4587,28 +4587,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>378.3901679977762</v>
+        <v>419.962763961528</v>
       </c>
       <c r="AB12" t="n">
-        <v>517.7301212506097</v>
+        <v>574.6115811017077</v>
       </c>
       <c r="AC12" t="n">
-        <v>468.3186851172396</v>
+        <v>519.7714582737791</v>
       </c>
       <c r="AD12" t="n">
-        <v>378390.1679977762</v>
+        <v>419962.763961528</v>
       </c>
       <c r="AE12" t="n">
-        <v>517730.1212506097</v>
+        <v>574611.5811017076</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.968018677597236e-06</v>
+        <v>5.017582836289652e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.826388888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>468318.6851172396</v>
+        <v>519771.4582737791</v>
       </c>
     </row>
   </sheetData>
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1315.526488893578</v>
+        <v>1386.075212454578</v>
       </c>
       <c r="AB2" t="n">
-        <v>1799.961379036842</v>
+        <v>1896.489255003025</v>
       </c>
       <c r="AC2" t="n">
-        <v>1628.175591283227</v>
+        <v>1715.490982244923</v>
       </c>
       <c r="AD2" t="n">
-        <v>1315526.488893578</v>
+        <v>1386075.212454578</v>
       </c>
       <c r="AE2" t="n">
-        <v>1799961.379036842</v>
+        <v>1896489.255003025</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.470972396107541e-06</v>
+        <v>2.5474167678349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>1628175.591283227</v>
+        <v>1715490.982244923</v>
       </c>
     </row>
     <row r="3">
@@ -4990,28 +4990,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>584.9859797443299</v>
+        <v>635.3534781090589</v>
       </c>
       <c r="AB3" t="n">
-        <v>800.4036252461991</v>
+        <v>869.3186585660243</v>
       </c>
       <c r="AC3" t="n">
-        <v>724.0142266262445</v>
+        <v>786.3521058888823</v>
       </c>
       <c r="AD3" t="n">
-        <v>584985.9797443299</v>
+        <v>635353.4781090589</v>
       </c>
       <c r="AE3" t="n">
-        <v>800403.6252461991</v>
+        <v>869318.6585660243</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.358204028067758e-06</v>
+        <v>4.083916529618155e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>724014.2266262445</v>
+        <v>786352.1058888823</v>
       </c>
     </row>
     <row r="4">
@@ -5096,28 +5096,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>469.6977834931187</v>
+        <v>510.0600548685592</v>
       </c>
       <c r="AB4" t="n">
-        <v>642.6612289790362</v>
+        <v>697.8866693326545</v>
       </c>
       <c r="AC4" t="n">
-        <v>581.3265432659762</v>
+        <v>631.2813451016374</v>
       </c>
       <c r="AD4" t="n">
-        <v>469697.7834931187</v>
+        <v>510060.0548685592</v>
       </c>
       <c r="AE4" t="n">
-        <v>642661.2289790362</v>
+        <v>697886.6693326544</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.676031858805676e-06</v>
+        <v>4.63432790881794e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>581326.5432659761</v>
+        <v>631281.3451016374</v>
       </c>
     </row>
     <row r="5">
@@ -5202,28 +5202,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>422.0313430259535</v>
+        <v>462.2230222008019</v>
       </c>
       <c r="AB5" t="n">
-        <v>577.4419022369224</v>
+        <v>632.4339308156937</v>
       </c>
       <c r="AC5" t="n">
-        <v>522.3316575322295</v>
+        <v>572.0753240852398</v>
       </c>
       <c r="AD5" t="n">
-        <v>422031.3430259535</v>
+        <v>462223.0222008019</v>
       </c>
       <c r="AE5" t="n">
-        <v>577441.9022369224</v>
+        <v>632433.9308156937</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.844000698127282e-06</v>
+        <v>4.92521483429247e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.370833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>522331.6575322296</v>
+        <v>572075.3240852398</v>
       </c>
     </row>
     <row r="6">
@@ -5308,28 +5308,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>391.5324416434533</v>
+        <v>421.8042346835848</v>
       </c>
       <c r="AB6" t="n">
-        <v>535.7119598488184</v>
+        <v>577.1311625835805</v>
       </c>
       <c r="AC6" t="n">
-        <v>484.5843622773043</v>
+        <v>522.0505744352768</v>
       </c>
       <c r="AD6" t="n">
-        <v>391532.4416434533</v>
+        <v>421804.2346835848</v>
       </c>
       <c r="AE6" t="n">
-        <v>535711.9598488184</v>
+        <v>577131.1625835805</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.950094223772465e-06</v>
+        <v>5.108946647956974e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.105555555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>484584.3622773043</v>
+        <v>522050.5744352768</v>
       </c>
     </row>
     <row r="7">
@@ -5414,28 +5414,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>357.4250713774917</v>
+        <v>397.7020018983606</v>
       </c>
       <c r="AB7" t="n">
-        <v>489.0447511399506</v>
+        <v>544.1534243713713</v>
       </c>
       <c r="AC7" t="n">
-        <v>442.3710064697722</v>
+        <v>492.2201852734946</v>
       </c>
       <c r="AD7" t="n">
-        <v>357425.0713774917</v>
+        <v>397702.0018983606</v>
       </c>
       <c r="AE7" t="n">
-        <v>489044.7511399506</v>
+        <v>544153.4243713713</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.019515307409427e-06</v>
+        <v>5.229169456329197e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.941666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>442371.0064697722</v>
+        <v>492220.1852734946</v>
       </c>
     </row>
     <row r="8">
@@ -5520,28 +5520,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>346.8740919656555</v>
+        <v>387.1510224865243</v>
       </c>
       <c r="AB8" t="n">
-        <v>474.6084356323163</v>
+        <v>529.7171088637369</v>
       </c>
       <c r="AC8" t="n">
-        <v>429.3124726526903</v>
+        <v>479.1616514564128</v>
       </c>
       <c r="AD8" t="n">
-        <v>346874.0919656554</v>
+        <v>387151.0224865242</v>
       </c>
       <c r="AE8" t="n">
-        <v>474608.4356323163</v>
+        <v>529717.108863737</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.050603879646849e-06</v>
+        <v>5.283008366165453e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.870833333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>429312.4726526903</v>
+        <v>479161.6514564127</v>
       </c>
     </row>
     <row r="9">
@@ -5626,28 +5626,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>347.9784122321451</v>
+        <v>388.2553427530141</v>
       </c>
       <c r="AB9" t="n">
-        <v>476.1194153400993</v>
+        <v>531.2280885715199</v>
       </c>
       <c r="AC9" t="n">
-        <v>430.6792465778359</v>
+        <v>480.5284253815583</v>
       </c>
       <c r="AD9" t="n">
-        <v>347978.4122321451</v>
+        <v>388255.3427530141</v>
       </c>
       <c r="AE9" t="n">
-        <v>476119.4153400993</v>
+        <v>531228.0885715199</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.049849302650795e-06</v>
+        <v>5.281701596509234e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.872222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>430679.2465778359</v>
+        <v>480528.4253815583</v>
       </c>
     </row>
   </sheetData>
@@ -5923,28 +5923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>440.7339265187178</v>
+        <v>477.1954784781303</v>
       </c>
       <c r="AB2" t="n">
-        <v>603.0316020714735</v>
+        <v>652.9199060324868</v>
       </c>
       <c r="AC2" t="n">
-        <v>545.4791123299404</v>
+        <v>590.6061465795892</v>
       </c>
       <c r="AD2" t="n">
-        <v>440733.9265187178</v>
+        <v>477195.4784781303</v>
       </c>
       <c r="AE2" t="n">
-        <v>603031.6020714735</v>
+        <v>652919.9060324868</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.5845970687489e-06</v>
+        <v>4.890613832791281e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.049999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>545479.1123299404</v>
+        <v>590606.1465795892</v>
       </c>
     </row>
     <row r="3">
@@ -6029,28 +6029,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.6404069565044</v>
+        <v>325.9312772067737</v>
       </c>
       <c r="AB3" t="n">
-        <v>396.2987828308171</v>
+        <v>445.9535525474352</v>
       </c>
       <c r="AC3" t="n">
-        <v>358.4765832062781</v>
+        <v>403.3923713920491</v>
       </c>
       <c r="AD3" t="n">
-        <v>289640.4069565044</v>
+        <v>325931.2772067737</v>
       </c>
       <c r="AE3" t="n">
-        <v>396298.782830817</v>
+        <v>445953.5525474352</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.198245213036168e-06</v>
+        <v>6.051768172554861e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>358476.5832062781</v>
+        <v>403392.3713920491</v>
       </c>
     </row>
     <row r="4">
@@ -6135,28 +6135,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>284.3610965341209</v>
+        <v>311.707282880818</v>
       </c>
       <c r="AB4" t="n">
-        <v>389.0753974041737</v>
+        <v>426.4916559923209</v>
       </c>
       <c r="AC4" t="n">
-        <v>351.9425875466686</v>
+        <v>385.7878909292118</v>
       </c>
       <c r="AD4" t="n">
-        <v>284361.0965341209</v>
+        <v>311707.282880818</v>
       </c>
       <c r="AE4" t="n">
-        <v>389075.3974041737</v>
+        <v>426491.6559923209</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.232935530742858e-06</v>
+        <v>6.117409718655656e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.234722222222223</v>
       </c>
       <c r="AH4" t="n">
-        <v>351942.5875466685</v>
+        <v>385787.8909292117</v>
       </c>
     </row>
   </sheetData>
@@ -6432,28 +6432,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>653.3190791138555</v>
+        <v>700.8875738632893</v>
       </c>
       <c r="AB2" t="n">
-        <v>893.8999864471651</v>
+        <v>958.985299537219</v>
       </c>
       <c r="AC2" t="n">
-        <v>808.5874263371576</v>
+        <v>867.4610884937075</v>
       </c>
       <c r="AD2" t="n">
-        <v>653319.0791138555</v>
+        <v>700887.5738632893</v>
       </c>
       <c r="AE2" t="n">
-        <v>893899.9864471651</v>
+        <v>958985.299537219</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.129131354924152e-06</v>
+        <v>3.878814935038053e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.50972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>808587.4263371576</v>
+        <v>867461.0884937075</v>
       </c>
     </row>
     <row r="3">
@@ -6538,28 +6538,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>381.3452875184353</v>
+        <v>419.3318106343252</v>
       </c>
       <c r="AB3" t="n">
-        <v>521.7734461494476</v>
+        <v>573.7482829237325</v>
       </c>
       <c r="AC3" t="n">
-        <v>471.9761207625746</v>
+        <v>518.9905520622634</v>
       </c>
       <c r="AD3" t="n">
-        <v>381345.2875184353</v>
+        <v>419331.8106343251</v>
       </c>
       <c r="AE3" t="n">
-        <v>521773.4461494476</v>
+        <v>573748.2829237325</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.870042001208669e-06</v>
+        <v>5.228593225461781e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.795833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>471976.1207625746</v>
+        <v>518990.5520622634</v>
       </c>
     </row>
     <row r="4">
@@ -6644,28 +6644,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>321.9133559409321</v>
+        <v>350.4033377864006</v>
       </c>
       <c r="AB4" t="n">
-        <v>440.4560554133347</v>
+        <v>479.4373054635968</v>
       </c>
       <c r="AC4" t="n">
-        <v>398.4195476686417</v>
+        <v>433.6804819246348</v>
       </c>
       <c r="AD4" t="n">
-        <v>321913.3559409322</v>
+        <v>350403.3377864006</v>
       </c>
       <c r="AE4" t="n">
-        <v>440456.0554133347</v>
+        <v>479437.3054635968</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.128933805639898e-06</v>
+        <v>5.700237868364788e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.151388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>398419.5476686417</v>
+        <v>433680.4819246348</v>
       </c>
     </row>
     <row r="5">
@@ -6750,28 +6750,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>309.0077700277863</v>
+        <v>337.4977518732547</v>
       </c>
       <c r="AB5" t="n">
-        <v>422.7980634127011</v>
+        <v>461.7793134629632</v>
       </c>
       <c r="AC5" t="n">
-        <v>382.446809641401</v>
+        <v>417.7077438973942</v>
       </c>
       <c r="AD5" t="n">
-        <v>309007.7700277863</v>
+        <v>337497.7518732547</v>
       </c>
       <c r="AE5" t="n">
-        <v>422798.0634127011</v>
+        <v>461779.3134629632</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.18531969957327e-06</v>
+        <v>5.80296072151728e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.024999999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>382446.8096414011</v>
+        <v>417707.7438973942</v>
       </c>
     </row>
     <row r="6">
@@ -6856,28 +6856,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>310.6239535552585</v>
+        <v>339.113935400727</v>
       </c>
       <c r="AB6" t="n">
-        <v>425.0093970159737</v>
+        <v>463.9906470662358</v>
       </c>
       <c r="AC6" t="n">
-        <v>384.4470966692035</v>
+        <v>419.7080309251966</v>
       </c>
       <c r="AD6" t="n">
-        <v>310623.9535552585</v>
+        <v>339113.935400727</v>
       </c>
       <c r="AE6" t="n">
-        <v>425009.3970159737</v>
+        <v>463990.6470662358</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.18531969957327e-06</v>
+        <v>5.80296072151728e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.024999999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>384447.0966692035</v>
+        <v>419708.0309251966</v>
       </c>
     </row>
   </sheetData>
@@ -7153,28 +7153,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>315.82768153209</v>
+        <v>350.9530300543387</v>
       </c>
       <c r="AB2" t="n">
-        <v>432.1293672061504</v>
+        <v>480.189418675301</v>
       </c>
       <c r="AC2" t="n">
-        <v>390.8875468973706</v>
+        <v>434.3608145070115</v>
       </c>
       <c r="AD2" t="n">
-        <v>315827.6815320899</v>
+        <v>350953.0300543387</v>
       </c>
       <c r="AE2" t="n">
-        <v>432129.3672061504</v>
+        <v>480189.418675301</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.977274264411063e-06</v>
+        <v>5.83449827908531e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.158333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>390887.5468973706</v>
+        <v>434360.8145070115</v>
       </c>
     </row>
     <row r="3">
@@ -7259,28 +7259,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>266.4945633687528</v>
+        <v>301.7051632370222</v>
       </c>
       <c r="AB3" t="n">
-        <v>364.6296185115035</v>
+        <v>412.8063146333035</v>
       </c>
       <c r="AC3" t="n">
-        <v>329.8298794816486</v>
+        <v>373.4086593420017</v>
       </c>
       <c r="AD3" t="n">
-        <v>266494.5633687528</v>
+        <v>301705.1632370222</v>
       </c>
       <c r="AE3" t="n">
-        <v>364629.6185115035</v>
+        <v>412806.3146333035</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.227027401318717e-06</v>
+        <v>6.323933956846798e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.527777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>329829.8794816486</v>
+        <v>373408.6593420017</v>
       </c>
     </row>
   </sheetData>
@@ -7556,28 +7556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1485.417205484852</v>
+        <v>1556.647240423515</v>
       </c>
       <c r="AB2" t="n">
-        <v>2032.413352526464</v>
+        <v>2129.873428776903</v>
       </c>
       <c r="AC2" t="n">
-        <v>1838.442674671394</v>
+        <v>1926.601298030566</v>
       </c>
       <c r="AD2" t="n">
-        <v>1485417.205484851</v>
+        <v>1556647.240423515</v>
       </c>
       <c r="AE2" t="n">
-        <v>2032413.352526464</v>
+        <v>2129873.428776903</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.37699649863075e-06</v>
+        <v>2.369096598397386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.08611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1838442.674671394</v>
+        <v>1926601.298030566</v>
       </c>
     </row>
     <row r="3">
@@ -7662,28 +7662,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>630.7598484918652</v>
+        <v>671.4627639604806</v>
       </c>
       <c r="AB3" t="n">
-        <v>863.0334518671438</v>
+        <v>918.7249764972007</v>
       </c>
       <c r="AC3" t="n">
-        <v>780.6667504960002</v>
+        <v>831.0431541789102</v>
       </c>
       <c r="AD3" t="n">
-        <v>630759.8484918652</v>
+        <v>671462.7639604806</v>
       </c>
       <c r="AE3" t="n">
-        <v>863033.4518671437</v>
+        <v>918724.9764972007</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.286319699638131e-06</v>
+        <v>3.933570077082747e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.086111111111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>780666.7504960002</v>
+        <v>831043.1541789102</v>
       </c>
     </row>
     <row r="4">
@@ -7768,28 +7768,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>494.2972364827235</v>
+        <v>545.0050872236608</v>
       </c>
       <c r="AB4" t="n">
-        <v>676.3192858106863</v>
+        <v>745.7000042669265</v>
       </c>
       <c r="AC4" t="n">
-        <v>611.7723223929929</v>
+        <v>674.5314424562195</v>
       </c>
       <c r="AD4" t="n">
-        <v>494297.2364827235</v>
+        <v>545005.0872236608</v>
       </c>
       <c r="AE4" t="n">
-        <v>676319.2858106863</v>
+        <v>745700.0042669266</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.612509486052128e-06</v>
+        <v>4.494773474617742e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.951388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>611772.3223929929</v>
+        <v>674531.4424562195</v>
       </c>
     </row>
     <row r="5">
@@ -7874,28 +7874,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>442.5632476518679</v>
+        <v>483.0954814113401</v>
       </c>
       <c r="AB5" t="n">
-        <v>605.5345599498021</v>
+        <v>660.9925503354636</v>
       </c>
       <c r="AC5" t="n">
-        <v>547.7431914212848</v>
+        <v>597.9083490403173</v>
       </c>
       <c r="AD5" t="n">
-        <v>442563.2476518679</v>
+        <v>483095.4814113401</v>
       </c>
       <c r="AE5" t="n">
-        <v>605534.5599498021</v>
+        <v>660992.5503354636</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.7885412965103e-06</v>
+        <v>4.797632896396142e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.448611111111112</v>
       </c>
       <c r="AH5" t="n">
-        <v>547743.1914212848</v>
+        <v>597908.3490403172</v>
       </c>
     </row>
     <row r="6">
@@ -7980,28 +7980,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>410.6757226832159</v>
+        <v>441.2029316618153</v>
       </c>
       <c r="AB6" t="n">
-        <v>561.9046415093762</v>
+        <v>603.673315599306</v>
       </c>
       <c r="AC6" t="n">
-        <v>508.2772511618382</v>
+        <v>546.0595816193272</v>
       </c>
       <c r="AD6" t="n">
-        <v>410675.7226832159</v>
+        <v>441202.9316618153</v>
       </c>
       <c r="AE6" t="n">
-        <v>561904.6415093762</v>
+        <v>603673.315599306</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.896074747418904e-06</v>
+        <v>4.982642177839361e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.172222222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>508277.2511618382</v>
+        <v>546059.5816193272</v>
       </c>
     </row>
     <row r="7">
@@ -8086,28 +8086,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>376.2340151751121</v>
+        <v>416.8515002806048</v>
       </c>
       <c r="AB7" t="n">
-        <v>514.7799778358915</v>
+        <v>570.3546128742023</v>
       </c>
       <c r="AC7" t="n">
-        <v>465.6500992494699</v>
+        <v>515.9207691192145</v>
       </c>
       <c r="AD7" t="n">
-        <v>376234.0151751121</v>
+        <v>416851.5002806048</v>
       </c>
       <c r="AE7" t="n">
-        <v>514779.9778358915</v>
+        <v>570354.6128742023</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.971004175659808e-06</v>
+        <v>5.11155685100077e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.991666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>465650.0992494699</v>
+        <v>515920.7691192145</v>
       </c>
     </row>
     <row r="8">
@@ -8192,28 +8192,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>359.4927043513111</v>
+        <v>400.1101894568039</v>
       </c>
       <c r="AB8" t="n">
-        <v>491.8737777922596</v>
+        <v>547.4484128305705</v>
       </c>
       <c r="AC8" t="n">
-        <v>444.9300347889485</v>
+        <v>495.2007046586931</v>
       </c>
       <c r="AD8" t="n">
-        <v>359492.7043513111</v>
+        <v>400110.1894568039</v>
       </c>
       <c r="AE8" t="n">
-        <v>491873.7777922596</v>
+        <v>547448.4128305705</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.016171216236162e-06</v>
+        <v>5.18926589550126e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.8875</v>
       </c>
       <c r="AH8" t="n">
-        <v>444930.0347889485</v>
+        <v>495200.7046586931</v>
       </c>
     </row>
     <row r="9">
@@ -8298,28 +8298,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>355.0880807475478</v>
+        <v>395.7055658530406</v>
       </c>
       <c r="AB9" t="n">
-        <v>485.8471774593114</v>
+        <v>541.4218124976223</v>
       </c>
       <c r="AC9" t="n">
-        <v>439.4786047333903</v>
+        <v>489.7492746031349</v>
       </c>
       <c r="AD9" t="n">
-        <v>355088.0807475478</v>
+        <v>395705.5658530406</v>
       </c>
       <c r="AE9" t="n">
-        <v>485847.1774593114</v>
+        <v>541421.8124976223</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.029482032829855e-06</v>
+        <v>5.212166905304384e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.856944444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>439478.6047333903</v>
+        <v>489749.2746031349</v>
       </c>
     </row>
     <row r="10">
@@ -8404,28 +8404,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>356.3120894997298</v>
+        <v>396.9295746052226</v>
       </c>
       <c r="AB10" t="n">
-        <v>487.5219202335019</v>
+        <v>543.0965552718127</v>
       </c>
       <c r="AC10" t="n">
-        <v>440.9935124077282</v>
+        <v>491.2641822774729</v>
       </c>
       <c r="AD10" t="n">
-        <v>356312.0894997299</v>
+        <v>396929.5746052226</v>
       </c>
       <c r="AE10" t="n">
-        <v>487521.9202335019</v>
+        <v>543096.5552718127</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.029631592566863e-06</v>
+        <v>5.212424220021273e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.855555555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>440993.5124077282</v>
+        <v>491264.1822774729</v>
       </c>
     </row>
   </sheetData>
@@ -8701,28 +8701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>260.1725826065065</v>
+        <v>294.6424845381916</v>
       </c>
       <c r="AB2" t="n">
-        <v>355.979605526491</v>
+        <v>403.1428460541698</v>
       </c>
       <c r="AC2" t="n">
-        <v>322.0054115955562</v>
+        <v>364.6674586412971</v>
       </c>
       <c r="AD2" t="n">
-        <v>260172.5826065065</v>
+        <v>294642.4845381916</v>
       </c>
       <c r="AE2" t="n">
-        <v>355979.605526491</v>
+        <v>403142.8460541698</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.159470867913181e-06</v>
+        <v>6.333666059946938e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.868055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>322005.4115955562</v>
+        <v>364667.4586412971</v>
       </c>
     </row>
     <row r="3">
@@ -8807,28 +8807,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>257.9493782573377</v>
+        <v>292.419280189026</v>
       </c>
       <c r="AB3" t="n">
-        <v>352.9377192549377</v>
+        <v>400.1009597827878</v>
       </c>
       <c r="AC3" t="n">
-        <v>319.2538386805518</v>
+        <v>361.9158857263416</v>
       </c>
       <c r="AD3" t="n">
-        <v>257949.3782573377</v>
+        <v>292419.280189026</v>
       </c>
       <c r="AE3" t="n">
-        <v>352937.7192549377</v>
+        <v>400100.9597827878</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.19043554387902e-06</v>
+        <v>6.395739718930102e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.791666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>319253.8386805519</v>
+        <v>361915.8857263416</v>
       </c>
     </row>
   </sheetData>
@@ -9104,28 +9104,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>932.3277887962519</v>
+        <v>991.1280479161211</v>
       </c>
       <c r="AB2" t="n">
-        <v>1275.652012030166</v>
+        <v>1356.105120642322</v>
       </c>
       <c r="AC2" t="n">
-        <v>1153.90557439085</v>
+        <v>1226.680351233709</v>
       </c>
       <c r="AD2" t="n">
-        <v>932327.7887962519</v>
+        <v>991128.0479161211</v>
       </c>
       <c r="AE2" t="n">
-        <v>1275652.012030166</v>
+        <v>1356105.120642322</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.77335918090836e-06</v>
+        <v>3.140750882211798e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.17777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1153905.57439085</v>
+        <v>1226680.351233708</v>
       </c>
     </row>
     <row r="3">
@@ -9210,28 +9210,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>485.7291905727419</v>
+        <v>524.9009462039811</v>
       </c>
       <c r="AB3" t="n">
-        <v>664.5961074011415</v>
+        <v>718.1926315916955</v>
       </c>
       <c r="AC3" t="n">
-        <v>601.1679876772707</v>
+        <v>649.6493348222726</v>
       </c>
       <c r="AD3" t="n">
-        <v>485729.1905727419</v>
+        <v>524900.9462039811</v>
       </c>
       <c r="AE3" t="n">
-        <v>664596.1074011414</v>
+        <v>718192.6315916956</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.59154559124942e-06</v>
+        <v>4.589819811821484e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>601167.9876772708</v>
+        <v>649649.3348222726</v>
       </c>
     </row>
     <row r="4">
@@ -9316,28 +9316,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>396.4255723335763</v>
+        <v>435.5119871102438</v>
       </c>
       <c r="AB4" t="n">
-        <v>542.4069571287353</v>
+        <v>595.8867141970919</v>
       </c>
       <c r="AC4" t="n">
-        <v>490.6403984133136</v>
+        <v>539.0161225263768</v>
       </c>
       <c r="AD4" t="n">
-        <v>396425.5723335763</v>
+        <v>435511.9871102438</v>
       </c>
       <c r="AE4" t="n">
-        <v>542406.9571287353</v>
+        <v>595886.7141970919</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.884021577158111e-06</v>
+        <v>5.107816515849577e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.487499999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>490640.3984133136</v>
+        <v>539016.1225263767</v>
       </c>
     </row>
     <row r="5">
@@ -9422,28 +9422,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>357.176661423268</v>
+        <v>386.6195061647639</v>
       </c>
       <c r="AB5" t="n">
-        <v>488.7048656815082</v>
+        <v>528.9898647834592</v>
       </c>
       <c r="AC5" t="n">
-        <v>442.0635592024511</v>
+        <v>478.5038145304634</v>
       </c>
       <c r="AD5" t="n">
-        <v>357176.661423268</v>
+        <v>386619.5061647639</v>
       </c>
       <c r="AE5" t="n">
-        <v>488704.8656815082</v>
+        <v>528989.8647834592</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.037023368829644e-06</v>
+        <v>5.378794057988675e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.111111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>442063.5592024511</v>
+        <v>478503.8145304634</v>
       </c>
     </row>
     <row r="6">
@@ -9528,28 +9528,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>324.5897574600293</v>
+        <v>363.7614235827174</v>
       </c>
       <c r="AB6" t="n">
-        <v>444.1180260462651</v>
+        <v>497.7144277672709</v>
       </c>
       <c r="AC6" t="n">
-        <v>401.7320249639732</v>
+        <v>450.2132613277486</v>
       </c>
       <c r="AD6" t="n">
-        <v>324589.7574600293</v>
+        <v>363761.4235827174</v>
       </c>
       <c r="AE6" t="n">
-        <v>444118.0260462651</v>
+        <v>497714.4277672709</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.112124858034268e-06</v>
+        <v>5.511804375928903e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.938888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>401732.0249639732</v>
+        <v>450213.2613277486</v>
       </c>
     </row>
     <row r="7">
@@ -9634,28 +9634,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>324.1888919866027</v>
+        <v>363.3605581092909</v>
       </c>
       <c r="AB7" t="n">
-        <v>443.5695442205864</v>
+        <v>497.1659459415922</v>
       </c>
       <c r="AC7" t="n">
-        <v>401.2358894739381</v>
+        <v>449.7171258377134</v>
       </c>
       <c r="AD7" t="n">
-        <v>324188.8919866027</v>
+        <v>363360.558109291</v>
       </c>
       <c r="AE7" t="n">
-        <v>443569.5442205864</v>
+        <v>497165.9459415922</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.118810911938613e-06</v>
+        <v>5.523645874213435e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.925000000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>401235.8894739382</v>
+        <v>449717.1258377134</v>
       </c>
     </row>
   </sheetData>
@@ -9931,28 +9931,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1167.850110925649</v>
+        <v>1237.694860581836</v>
       </c>
       <c r="AB2" t="n">
-        <v>1597.904043679134</v>
+        <v>1693.468711491614</v>
       </c>
       <c r="AC2" t="n">
-        <v>1445.402324422807</v>
+        <v>1531.846434465118</v>
       </c>
       <c r="AD2" t="n">
-        <v>1167850.110925649</v>
+        <v>1237694.860581836</v>
       </c>
       <c r="AE2" t="n">
-        <v>1597904.043679134</v>
+        <v>1693468.711491614</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.568126765370598e-06</v>
+        <v>2.734676151224838e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.49444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1445402.324422807</v>
+        <v>1531846.434465118</v>
       </c>
     </row>
     <row r="3">
@@ -10037,28 +10037,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>551.7115247547492</v>
+        <v>601.6371423693058</v>
       </c>
       <c r="AB3" t="n">
-        <v>754.8760479641044</v>
+        <v>823.1864805471408</v>
       </c>
       <c r="AC3" t="n">
-        <v>682.831737421597</v>
+        <v>744.6227181932027</v>
       </c>
       <c r="AD3" t="n">
-        <v>551711.5247547493</v>
+        <v>601637.1423693058</v>
       </c>
       <c r="AE3" t="n">
-        <v>754876.0479641043</v>
+        <v>823186.4805471408</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.431487727126663e-06</v>
+        <v>4.24030228053516e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.702777777777776</v>
       </c>
       <c r="AH3" t="n">
-        <v>682831.737421597</v>
+        <v>744622.7181932026</v>
       </c>
     </row>
     <row r="4">
@@ -10143,28 +10143,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>445.2966798540122</v>
+        <v>485.3054466293147</v>
       </c>
       <c r="AB4" t="n">
-        <v>609.2745624792936</v>
+        <v>664.0163222434808</v>
       </c>
       <c r="AC4" t="n">
-        <v>551.1262533584883</v>
+        <v>600.6435364013239</v>
       </c>
       <c r="AD4" t="n">
-        <v>445296.6798540122</v>
+        <v>485305.4466293147</v>
       </c>
       <c r="AE4" t="n">
-        <v>609274.5624792937</v>
+        <v>664016.3222434808</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.741822344930987e-06</v>
+        <v>4.781498755813991e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.716666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>551126.2533584883</v>
+        <v>600643.5364013239</v>
       </c>
     </row>
     <row r="5">
@@ -10249,28 +10249,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>400.7993223349145</v>
+        <v>440.6374969096249</v>
       </c>
       <c r="AB5" t="n">
-        <v>548.3913148367982</v>
+        <v>602.8996628261385</v>
       </c>
       <c r="AC5" t="n">
-        <v>496.0536174208178</v>
+        <v>545.3597651810024</v>
       </c>
       <c r="AD5" t="n">
-        <v>400799.3223349145</v>
+        <v>440637.496909625</v>
       </c>
       <c r="AE5" t="n">
-        <v>548391.3148367982</v>
+        <v>602899.6628261385</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.90437857330468e-06</v>
+        <v>5.064982623817187e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.286111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>496053.6174208178</v>
+        <v>545359.7651810024</v>
       </c>
     </row>
     <row r="6">
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>370.8040602975554</v>
+        <v>400.8107248875834</v>
       </c>
       <c r="AB6" t="n">
-        <v>507.3504740197161</v>
+        <v>548.4069163124049</v>
       </c>
       <c r="AC6" t="n">
-        <v>458.929656850136</v>
+        <v>496.0677299134894</v>
       </c>
       <c r="AD6" t="n">
-        <v>370804.0602975554</v>
+        <v>400810.7248875834</v>
       </c>
       <c r="AE6" t="n">
-        <v>507350.4740197161</v>
+        <v>548406.9163124049</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.005690561934958e-06</v>
+        <v>5.241661885506152e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.040277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>458929.6568501361</v>
+        <v>496067.7299134894</v>
       </c>
     </row>
     <row r="7">
@@ -10461,28 +10461,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>341.3540817368734</v>
+        <v>381.2775076576043</v>
       </c>
       <c r="AB7" t="n">
-        <v>467.0557141116327</v>
+        <v>521.6807067536222</v>
       </c>
       <c r="AC7" t="n">
-        <v>422.4805722736295</v>
+        <v>471.8922322845262</v>
       </c>
       <c r="AD7" t="n">
-        <v>341354.0817368734</v>
+        <v>381277.5076576043</v>
       </c>
       <c r="AE7" t="n">
-        <v>467055.7141116327</v>
+        <v>521680.7067536222</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.064497219997043e-06</v>
+        <v>5.344215562215836e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.904166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>422480.5722736295</v>
+        <v>471892.2322845262</v>
       </c>
     </row>
     <row r="8">
@@ -10567,28 +10567,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>340.0296595395002</v>
+        <v>379.9530854602312</v>
       </c>
       <c r="AB8" t="n">
-        <v>465.2435812318031</v>
+        <v>519.8685738737927</v>
       </c>
       <c r="AC8" t="n">
-        <v>420.8413868125064</v>
+        <v>470.2530468234032</v>
       </c>
       <c r="AD8" t="n">
-        <v>340029.6595395003</v>
+        <v>379953.0854602312</v>
       </c>
       <c r="AE8" t="n">
-        <v>465243.5812318032</v>
+        <v>519868.5738737927</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.070743523055452e-06</v>
+        <v>5.355108569327487e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.890277777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>420841.3868125064</v>
+        <v>470253.0468234032</v>
       </c>
     </row>
     <row r="9">
@@ -10673,28 +10673,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>341.442257635468</v>
+        <v>381.365683556199</v>
       </c>
       <c r="AB9" t="n">
-        <v>467.176360266136</v>
+        <v>521.8013529081255</v>
       </c>
       <c r="AC9" t="n">
-        <v>422.589704128475</v>
+        <v>472.0013641393717</v>
       </c>
       <c r="AD9" t="n">
-        <v>341442.257635468</v>
+        <v>381365.683556199</v>
       </c>
       <c r="AE9" t="n">
-        <v>467176.360266136</v>
+        <v>521801.3529081255</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.070743523055452e-06</v>
+        <v>5.355108569327487e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.890277777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>422589.704128475</v>
+        <v>472001.3641393717</v>
       </c>
     </row>
   </sheetData>
@@ -10970,28 +10970,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1882.809754706787</v>
+        <v>1975.76124176686</v>
       </c>
       <c r="AB2" t="n">
-        <v>2576.143370093862</v>
+        <v>2703.323695419648</v>
       </c>
       <c r="AC2" t="n">
-        <v>2330.279862492031</v>
+        <v>2445.322276067432</v>
       </c>
       <c r="AD2" t="n">
-        <v>1882809.754706787</v>
+        <v>1975761.24176686</v>
       </c>
       <c r="AE2" t="n">
-        <v>2576143.370093862</v>
+        <v>2703323.695419648</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.204197632423908e-06</v>
+        <v>2.04705616526225e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.95972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>2330279.862492031</v>
+        <v>2445322.276067432</v>
       </c>
     </row>
     <row r="3">
@@ -11076,28 +11076,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>705.6099951184409</v>
+        <v>757.1265295370955</v>
       </c>
       <c r="AB3" t="n">
-        <v>965.4467246370392</v>
+        <v>1035.933919777738</v>
       </c>
       <c r="AC3" t="n">
-        <v>873.3058442506677</v>
+        <v>937.0658404165385</v>
       </c>
       <c r="AD3" t="n">
-        <v>705609.9951184409</v>
+        <v>757126.5295370955</v>
       </c>
       <c r="AE3" t="n">
-        <v>965446.7246370392</v>
+        <v>1035933.919777738</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.150762556091352e-06</v>
+        <v>3.656153800601499e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.495833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>873305.8442506677</v>
+        <v>937065.8404165385</v>
       </c>
     </row>
     <row r="4">
@@ -11182,28 +11182,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>555.0734613264545</v>
+        <v>596.3379112758313</v>
       </c>
       <c r="AB4" t="n">
-        <v>759.4759978996852</v>
+        <v>815.935838779473</v>
       </c>
       <c r="AC4" t="n">
-        <v>686.9926745913964</v>
+        <v>738.0640674995014</v>
       </c>
       <c r="AD4" t="n">
-        <v>555073.4613264545</v>
+        <v>596337.9112758313</v>
       </c>
       <c r="AE4" t="n">
-        <v>759475.9978996853</v>
+        <v>815935.838779473</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.492508226839082e-06</v>
+        <v>4.237098791207125e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.194444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>686992.6745913964</v>
+        <v>738064.0674995014</v>
       </c>
     </row>
     <row r="5">
@@ -11288,28 +11288,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>485.3250551461263</v>
+        <v>526.6747564415238</v>
       </c>
       <c r="AB5" t="n">
-        <v>664.0431514812491</v>
+        <v>720.6196370136861</v>
       </c>
       <c r="AC5" t="n">
-        <v>600.6678050942947</v>
+        <v>651.844710253112</v>
       </c>
       <c r="AD5" t="n">
-        <v>485325.0551461263</v>
+        <v>526674.7564415238</v>
       </c>
       <c r="AE5" t="n">
-        <v>664043.1514812491</v>
+        <v>720619.6370136861</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.676027416638208e-06</v>
+        <v>4.549069250878305e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.631944444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>600667.8050942947</v>
+        <v>651844.710253112</v>
       </c>
     </row>
     <row r="6">
@@ -11394,28 +11394,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>451.6396452509023</v>
+        <v>492.8187543457075</v>
       </c>
       <c r="AB6" t="n">
-        <v>617.9532875672027</v>
+        <v>674.2963613247925</v>
       </c>
       <c r="AC6" t="n">
-        <v>558.9766931046744</v>
+        <v>609.9424629808404</v>
       </c>
       <c r="AD6" t="n">
-        <v>451639.6452509023</v>
+        <v>492818.7543457075</v>
       </c>
       <c r="AE6" t="n">
-        <v>617953.2875672027</v>
+        <v>674296.3613247925</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.787050644441364e-06</v>
+        <v>4.737801379926174e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.327777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>558976.6931046743</v>
+        <v>609942.4629808405</v>
       </c>
     </row>
     <row r="7">
@@ -11500,28 +11500,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>426.381427603315</v>
+        <v>457.3937930834141</v>
       </c>
       <c r="AB7" t="n">
-        <v>583.3938798678554</v>
+        <v>625.8263664867314</v>
       </c>
       <c r="AC7" t="n">
-        <v>527.7155867717194</v>
+        <v>566.098376422059</v>
       </c>
       <c r="AD7" t="n">
-        <v>426381.427603315</v>
+        <v>457393.7930834141</v>
       </c>
       <c r="AE7" t="n">
-        <v>583393.8798678553</v>
+        <v>625826.3664867315</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.864105176055741e-06</v>
+        <v>4.868788976775291e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.130555555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>527715.5867717194</v>
+        <v>566098.376422059</v>
       </c>
     </row>
     <row r="8">
@@ -11606,28 +11606,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>396.0072285921438</v>
+        <v>437.2715890329695</v>
       </c>
       <c r="AB8" t="n">
-        <v>541.8345607656842</v>
+        <v>598.2942791759234</v>
       </c>
       <c r="AC8" t="n">
-        <v>490.1226307557886</v>
+        <v>541.1939128826672</v>
       </c>
       <c r="AD8" t="n">
-        <v>396007.2285921438</v>
+        <v>437271.5890329696</v>
       </c>
       <c r="AE8" t="n">
-        <v>541834.5607656841</v>
+        <v>598294.2791759234</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.921601973500819e-06</v>
+        <v>4.966529721752399e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.990277777777777</v>
       </c>
       <c r="AH8" t="n">
-        <v>490122.6307557886</v>
+        <v>541193.9128826672</v>
       </c>
     </row>
     <row r="9">
@@ -11712,28 +11712,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>379.520345141568</v>
+        <v>420.7847055823938</v>
       </c>
       <c r="AB9" t="n">
-        <v>519.2764794786423</v>
+        <v>575.7361978888815</v>
       </c>
       <c r="AC9" t="n">
-        <v>469.7174610863163</v>
+        <v>520.7887432131947</v>
       </c>
       <c r="AD9" t="n">
-        <v>379520.345141568</v>
+        <v>420784.7055823938</v>
       </c>
       <c r="AE9" t="n">
-        <v>519276.4794786422</v>
+        <v>575736.1978888816</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.964834859559267e-06</v>
+        <v>5.040022762732629e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.888888888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>469717.4610863163</v>
+        <v>520788.7432131947</v>
       </c>
     </row>
     <row r="10">
@@ -11818,28 +11818,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>371.4453826667211</v>
+        <v>412.709743107547</v>
       </c>
       <c r="AB10" t="n">
-        <v>508.2279595783547</v>
+        <v>564.6876779885939</v>
       </c>
       <c r="AC10" t="n">
-        <v>459.723396418617</v>
+        <v>510.7946785454955</v>
       </c>
       <c r="AD10" t="n">
-        <v>371445.3826667211</v>
+        <v>412709.7431075469</v>
       </c>
       <c r="AE10" t="n">
-        <v>508227.9595783547</v>
+        <v>564687.6779885939</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.983657340564305e-06</v>
+        <v>5.072019732955313e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.844444444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>459723.396418617</v>
+        <v>510794.6785454955</v>
       </c>
     </row>
     <row r="11">
@@ -11924,28 +11924,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>371.5413517693683</v>
+        <v>412.8057122101941</v>
       </c>
       <c r="AB11" t="n">
-        <v>508.3592687384544</v>
+        <v>564.8189871486937</v>
       </c>
       <c r="AC11" t="n">
-        <v>459.8421736167704</v>
+        <v>510.9134557436489</v>
       </c>
       <c r="AD11" t="n">
-        <v>371541.3517693683</v>
+        <v>412805.7122101941</v>
       </c>
       <c r="AE11" t="n">
-        <v>508359.2687384544</v>
+        <v>564818.9871486938</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.987921808917009e-06</v>
+        <v>5.07926904652139e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.834722222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>459842.1736167704</v>
+        <v>510913.4557436489</v>
       </c>
     </row>
   </sheetData>
@@ -12221,28 +12221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>740.2964921888043</v>
+        <v>788.3373135031254</v>
       </c>
       <c r="AB2" t="n">
-        <v>1012.906320188961</v>
+        <v>1078.637891322671</v>
       </c>
       <c r="AC2" t="n">
-        <v>916.2359626130748</v>
+        <v>975.694204852623</v>
       </c>
       <c r="AD2" t="n">
-        <v>740296.4921888043</v>
+        <v>788337.3135031254</v>
       </c>
       <c r="AE2" t="n">
-        <v>1012906.320188961</v>
+        <v>1078637.891322671</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.004010005681089e-06</v>
+        <v>3.613704269055451e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.025</v>
       </c>
       <c r="AH2" t="n">
-        <v>916235.9626130748</v>
+        <v>975694.2048526229</v>
       </c>
     </row>
     <row r="3">
@@ -12327,28 +12327,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>411.9549261054198</v>
+        <v>459.8249762020465</v>
       </c>
       <c r="AB3" t="n">
-        <v>563.6549040661076</v>
+        <v>629.1528184858735</v>
       </c>
       <c r="AC3" t="n">
-        <v>509.8604711166639</v>
+        <v>569.1073565111078</v>
       </c>
       <c r="AD3" t="n">
-        <v>411954.9261054198</v>
+        <v>459824.9762020464</v>
       </c>
       <c r="AE3" t="n">
-        <v>563654.9040661076</v>
+        <v>629152.8184858735</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.773987653335012e-06</v>
+        <v>5.002156175241716e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.965277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>509860.4711166639</v>
+        <v>569107.3565111078</v>
       </c>
     </row>
     <row r="4">
@@ -12433,28 +12433,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>347.889140972797</v>
+        <v>386.1511342168207</v>
       </c>
       <c r="AB4" t="n">
-        <v>475.9972704646891</v>
+        <v>528.3490176211714</v>
       </c>
       <c r="AC4" t="n">
-        <v>430.5687590379034</v>
+        <v>477.9241289219095</v>
       </c>
       <c r="AD4" t="n">
-        <v>347889.1409727969</v>
+        <v>386151.1342168207</v>
       </c>
       <c r="AE4" t="n">
-        <v>475997.2704646891</v>
+        <v>528349.0176211713</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.039502672742945e-06</v>
+        <v>5.480942586693138e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.269444444444446</v>
       </c>
       <c r="AH4" t="n">
-        <v>430568.7590379033</v>
+        <v>477924.1289219095</v>
       </c>
     </row>
     <row r="5">
@@ -12539,28 +12539,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>318.5613259517185</v>
+        <v>347.3858545437315</v>
       </c>
       <c r="AB5" t="n">
-        <v>435.8696601009664</v>
+        <v>475.3086517690115</v>
       </c>
       <c r="AC5" t="n">
-        <v>394.2708714878394</v>
+        <v>429.9458611440589</v>
       </c>
       <c r="AD5" t="n">
-        <v>318561.3259517184</v>
+        <v>347385.8545437314</v>
       </c>
       <c r="AE5" t="n">
-        <v>435869.6601009663</v>
+        <v>475308.6517690115</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.155953837636059e-06</v>
+        <v>5.690931593992382e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.001388888888888</v>
       </c>
       <c r="AH5" t="n">
-        <v>394270.8714878394</v>
+        <v>429945.8611440589</v>
       </c>
     </row>
     <row r="6">
@@ -12645,28 +12645,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>309.0335788331923</v>
+        <v>347.3808234232367</v>
       </c>
       <c r="AB6" t="n">
-        <v>422.8333761588618</v>
+        <v>475.3017679679932</v>
       </c>
       <c r="AC6" t="n">
-        <v>382.4787521886299</v>
+        <v>429.9396343233482</v>
       </c>
       <c r="AD6" t="n">
-        <v>309033.5788331924</v>
+        <v>347380.8234232367</v>
       </c>
       <c r="AE6" t="n">
-        <v>422833.3761588618</v>
+        <v>475301.7679679932</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.160090081197836e-06</v>
+        <v>5.698390219934706e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.991666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>382478.7521886299</v>
+        <v>429939.6343233482</v>
       </c>
     </row>
   </sheetData>
@@ -12942,28 +12942,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>504.4512196542615</v>
+        <v>550.7098221516428</v>
       </c>
       <c r="AB2" t="n">
-        <v>690.2124135481064</v>
+        <v>753.505474270534</v>
       </c>
       <c r="AC2" t="n">
-        <v>624.3395095182809</v>
+        <v>681.5919693577288</v>
       </c>
       <c r="AD2" t="n">
-        <v>504451.2196542615</v>
+        <v>550709.8221516428</v>
       </c>
       <c r="AE2" t="n">
-        <v>690212.4135481063</v>
+        <v>753505.474270534</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.41679018464226e-06</v>
+        <v>4.508957975110933e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.52361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>624339.509518281</v>
+        <v>681591.9693577287</v>
       </c>
     </row>
     <row r="3">
@@ -13048,28 +13048,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>318.594491851449</v>
+        <v>355.4307816487619</v>
       </c>
       <c r="AB3" t="n">
-        <v>435.915039148154</v>
+        <v>486.3160759512492</v>
       </c>
       <c r="AC3" t="n">
-        <v>394.3119196224534</v>
+        <v>439.9027522113607</v>
       </c>
       <c r="AD3" t="n">
-        <v>318594.4918514491</v>
+        <v>355430.7816487619</v>
       </c>
       <c r="AE3" t="n">
-        <v>435915.039148154</v>
+        <v>486316.0759512492</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.091748112648838e-06</v>
+        <v>5.768213723371139e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.444444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>394311.9196224534</v>
+        <v>439902.7522113607</v>
       </c>
     </row>
     <row r="4">
@@ -13154,28 +13154,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>292.6893979253633</v>
+        <v>320.4446489323432</v>
       </c>
       <c r="AB4" t="n">
-        <v>400.470546786398</v>
+        <v>438.4465056894031</v>
       </c>
       <c r="AC4" t="n">
-        <v>362.2501998650459</v>
+        <v>396.6017865499412</v>
       </c>
       <c r="AD4" t="n">
-        <v>292689.3979253633</v>
+        <v>320444.6489323432</v>
       </c>
       <c r="AE4" t="n">
-        <v>400470.546786398</v>
+        <v>438446.505689403</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.218354510143811e-06</v>
+        <v>6.004420792281229e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.151388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>362250.199865046</v>
+        <v>396601.7865499412</v>
       </c>
     </row>
     <row r="5">
@@ -13260,28 +13260,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>294.4738409816367</v>
+        <v>322.2290919886165</v>
       </c>
       <c r="AB5" t="n">
-        <v>402.9121005000626</v>
+        <v>440.8880594030677</v>
       </c>
       <c r="AC5" t="n">
-        <v>364.4587351190206</v>
+        <v>398.8103218039158</v>
       </c>
       <c r="AD5" t="n">
-        <v>294473.8409816367</v>
+        <v>322229.0919886164</v>
       </c>
       <c r="AE5" t="n">
-        <v>402912.1005000626</v>
+        <v>440888.0594030677</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.218023079783876e-06</v>
+        <v>6.003802449168898e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.152777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>364458.7351190206</v>
+        <v>398810.3218039158</v>
       </c>
     </row>
   </sheetData>
@@ -23962,28 +23962,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>372.9536026282526</v>
+        <v>417.7023750061444</v>
       </c>
       <c r="AB2" t="n">
-        <v>510.2915726676906</v>
+        <v>571.5188172116291</v>
       </c>
       <c r="AC2" t="n">
-        <v>461.5900611710059</v>
+        <v>516.9738634286484</v>
       </c>
       <c r="AD2" t="n">
-        <v>372953.6026282525</v>
+        <v>417702.3750061444</v>
       </c>
       <c r="AE2" t="n">
-        <v>510291.5726676906</v>
+        <v>571518.8172116291</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.768166443061814e-06</v>
+        <v>5.323286723606447e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.601388888888888</v>
       </c>
       <c r="AH2" t="n">
-        <v>461590.0611710059</v>
+        <v>516973.8634286484</v>
       </c>
     </row>
     <row r="3">
@@ -24068,28 +24068,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>275.0920838850456</v>
+        <v>310.7887822704242</v>
       </c>
       <c r="AB3" t="n">
-        <v>376.393125377731</v>
+        <v>425.234922935793</v>
       </c>
       <c r="AC3" t="n">
-        <v>340.4706937627489</v>
+        <v>384.6510987117628</v>
       </c>
       <c r="AD3" t="n">
-        <v>275092.0838850456</v>
+        <v>310788.7822704242</v>
       </c>
       <c r="AE3" t="n">
-        <v>376393.125377731</v>
+        <v>425234.9229357929</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.234098842878634e-06</v>
+        <v>6.219292006908548e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.361111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>340470.6937627489</v>
+        <v>384651.0987117628</v>
       </c>
     </row>
     <row r="4">
@@ -24174,28 +24174,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>277.0923745402334</v>
+        <v>312.7890729256121</v>
       </c>
       <c r="AB4" t="n">
-        <v>379.1300112987545</v>
+        <v>427.9718088568166</v>
       </c>
       <c r="AC4" t="n">
-        <v>342.9463751327136</v>
+        <v>387.1267800817275</v>
       </c>
       <c r="AD4" t="n">
-        <v>277092.3745402334</v>
+        <v>312789.072925612</v>
       </c>
       <c r="AE4" t="n">
-        <v>379130.0112987545</v>
+        <v>427971.8088568166</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.233413143982656e-06</v>
+        <v>6.217973382503393e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.36388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>342946.3751327136</v>
+        <v>387126.7800817275</v>
       </c>
     </row>
   </sheetData>
@@ -24471,28 +24471,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>255.0993943585493</v>
+        <v>288.6224100129424</v>
       </c>
       <c r="AB2" t="n">
-        <v>349.0382455522014</v>
+        <v>394.9059145017799</v>
       </c>
       <c r="AC2" t="n">
-        <v>315.7265252750579</v>
+        <v>357.2166482756614</v>
       </c>
       <c r="AD2" t="n">
-        <v>255099.3943585493</v>
+        <v>288622.4100129424</v>
       </c>
       <c r="AE2" t="n">
-        <v>349038.2455522014</v>
+        <v>394905.9145017799</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.099512760822387e-06</v>
+        <v>6.393052917027415e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.244444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>315726.5252750579</v>
+        <v>357216.6482756614</v>
       </c>
     </row>
   </sheetData>
@@ -24768,28 +24768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1038.089615828495</v>
+        <v>1107.375856765235</v>
       </c>
       <c r="AB2" t="n">
-        <v>1420.360009658187</v>
+        <v>1515.160501201055</v>
       </c>
       <c r="AC2" t="n">
-        <v>1284.802843824203</v>
+        <v>1370.555709507545</v>
       </c>
       <c r="AD2" t="n">
-        <v>1038089.615828495</v>
+        <v>1107375.856765235</v>
       </c>
       <c r="AE2" t="n">
-        <v>1420360.009658187</v>
+        <v>1515160.501201055</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.668563405041463e-06</v>
+        <v>2.931600081542861e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.80833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1284802.843824203</v>
+        <v>1370555.709507545</v>
       </c>
     </row>
     <row r="3">
@@ -24874,28 +24874,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>517.6109145783433</v>
+        <v>557.3371593136645</v>
       </c>
       <c r="AB3" t="n">
-        <v>708.2180887080011</v>
+        <v>762.5732893530929</v>
       </c>
       <c r="AC3" t="n">
-        <v>640.626748312039</v>
+        <v>689.7943648955666</v>
       </c>
       <c r="AD3" t="n">
-        <v>517610.9145783434</v>
+        <v>557337.1593136645</v>
       </c>
       <c r="AE3" t="n">
-        <v>708218.0887080011</v>
+        <v>762573.2893530929</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.510846333775967e-06</v>
+        <v>4.411457961141313e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.511111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>640626.7483120391</v>
+        <v>689794.3648955666</v>
       </c>
     </row>
     <row r="4">
@@ -24980,28 +24980,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>420.3748174227601</v>
+        <v>460.0157213035097</v>
       </c>
       <c r="AB4" t="n">
-        <v>575.1753708258813</v>
+        <v>629.4138043487757</v>
       </c>
       <c r="AC4" t="n">
-        <v>520.2814406979616</v>
+        <v>569.3434342495503</v>
       </c>
       <c r="AD4" t="n">
-        <v>420374.8174227601</v>
+        <v>460015.7213035097</v>
       </c>
       <c r="AE4" t="n">
-        <v>575175.3708258813</v>
+        <v>629413.8043487757</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.813200362815664e-06</v>
+        <v>4.942682062970132e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.597222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>520281.4406979615</v>
+        <v>569343.4342495503</v>
       </c>
     </row>
     <row r="5">
@@ -25086,28 +25086,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>378.9329890820847</v>
+        <v>408.6637565011979</v>
       </c>
       <c r="AB5" t="n">
-        <v>518.4728330057366</v>
+        <v>559.1517806174558</v>
       </c>
       <c r="AC5" t="n">
-        <v>468.9905135048597</v>
+        <v>505.7871194497779</v>
       </c>
       <c r="AD5" t="n">
-        <v>378932.9890820847</v>
+        <v>408663.7565011979</v>
       </c>
       <c r="AE5" t="n">
-        <v>518472.8330057366</v>
+        <v>559151.7806174557</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.969685883188881e-06</v>
+        <v>5.217620949260163e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.195833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>468990.5135048598</v>
+        <v>505787.1194497779</v>
       </c>
     </row>
     <row r="6">
@@ -25192,28 +25192,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>340.1407183203577</v>
+        <v>379.6962813465357</v>
       </c>
       <c r="AB6" t="n">
-        <v>465.3955367553401</v>
+        <v>519.5172031560367</v>
       </c>
       <c r="AC6" t="n">
-        <v>420.9788399141478</v>
+        <v>469.9352104337978</v>
       </c>
       <c r="AD6" t="n">
-        <v>340140.7183203577</v>
+        <v>379696.2813465357</v>
       </c>
       <c r="AE6" t="n">
-        <v>465395.5367553401</v>
+        <v>519517.2031560367</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.067700904307602e-06</v>
+        <v>5.389829474891185e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.966666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>420978.8399141479</v>
+        <v>469935.2104337978</v>
       </c>
     </row>
     <row r="7">
@@ -25298,28 +25298,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>331.3292740258102</v>
+        <v>370.884837051988</v>
       </c>
       <c r="AB7" t="n">
-        <v>453.3393299380531</v>
+        <v>507.4609963387497</v>
       </c>
       <c r="AC7" t="n">
-        <v>410.0732605545103</v>
+        <v>459.0296310741602</v>
       </c>
       <c r="AD7" t="n">
-        <v>331329.2740258101</v>
+        <v>370884.8370519881</v>
       </c>
       <c r="AE7" t="n">
-        <v>453339.3299380531</v>
+        <v>507460.9963387497</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.093704889502365e-06</v>
+        <v>5.435517451079008e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.908333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>410073.2605545103</v>
+        <v>459029.6310741602</v>
       </c>
     </row>
     <row r="8">
@@ -25404,28 +25404,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>332.171802621413</v>
+        <v>371.7273656475909</v>
       </c>
       <c r="AB8" t="n">
-        <v>454.4921147322953</v>
+        <v>508.6137811329919</v>
       </c>
       <c r="AC8" t="n">
-        <v>411.1160251859337</v>
+        <v>460.0723957055836</v>
       </c>
       <c r="AD8" t="n">
-        <v>332171.802621413</v>
+        <v>371727.365647591</v>
       </c>
       <c r="AE8" t="n">
-        <v>454492.1147322953</v>
+        <v>508613.7811329919</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.098782590753413e-06</v>
+        <v>5.444438771873079e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.897222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>411116.0251859337</v>
+        <v>460072.3957055836</v>
       </c>
     </row>
   </sheetData>
@@ -25701,28 +25701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1663.824553826403</v>
+        <v>1755.975033068999</v>
       </c>
       <c r="AB2" t="n">
-        <v>2276.518157304092</v>
+        <v>2402.602508396036</v>
       </c>
       <c r="AC2" t="n">
-        <v>2059.25045948429</v>
+        <v>2173.301497068517</v>
       </c>
       <c r="AD2" t="n">
-        <v>1663824.553826402</v>
+        <v>1755975.033068999</v>
       </c>
       <c r="AE2" t="n">
-        <v>2276518.157304092</v>
+        <v>2402602.508396036</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.289240455575669e-06</v>
+        <v>2.204457502989621e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.97361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>2059250.45948429</v>
+        <v>2173301.497068517</v>
       </c>
     </row>
     <row r="3">
@@ -25807,28 +25807,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>667.6361128748702</v>
+        <v>718.7550545363558</v>
       </c>
       <c r="AB3" t="n">
-        <v>913.4891836619372</v>
+        <v>983.4323748517232</v>
       </c>
       <c r="AC3" t="n">
-        <v>826.3070580633628</v>
+        <v>889.5749692518809</v>
       </c>
       <c r="AD3" t="n">
-        <v>667636.1128748702</v>
+        <v>718755.0545363558</v>
       </c>
       <c r="AE3" t="n">
-        <v>913489.1836619372</v>
+        <v>983432.3748517232</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.216841178989284e-06</v>
+        <v>3.790551365980198e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.288888888888888</v>
       </c>
       <c r="AH3" t="n">
-        <v>826307.0580633627</v>
+        <v>889574.9692518809</v>
       </c>
     </row>
     <row r="4">
@@ -25913,28 +25913,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>529.2898849720788</v>
+        <v>570.2362607157203</v>
       </c>
       <c r="AB4" t="n">
-        <v>724.1977712405196</v>
+        <v>780.2224089595768</v>
       </c>
       <c r="AC4" t="n">
-        <v>655.0813523712794</v>
+        <v>705.7590772975027</v>
       </c>
       <c r="AD4" t="n">
-        <v>529289.8849720787</v>
+        <v>570236.2607157202</v>
       </c>
       <c r="AE4" t="n">
-        <v>724197.7712405196</v>
+        <v>780222.4089595767</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.551791632024987e-06</v>
+        <v>4.363279312990382e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.069444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>655081.3523712794</v>
+        <v>705759.0772975027</v>
       </c>
     </row>
     <row r="5">
@@ -26019,28 +26019,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>464.2905093757288</v>
+        <v>505.3221364653911</v>
       </c>
       <c r="AB5" t="n">
-        <v>635.2627579795256</v>
+        <v>691.404040351232</v>
       </c>
       <c r="AC5" t="n">
-        <v>574.6341719548395</v>
+        <v>625.4174091317749</v>
       </c>
       <c r="AD5" t="n">
-        <v>464290.5093757288</v>
+        <v>505322.1364653911</v>
       </c>
       <c r="AE5" t="n">
-        <v>635262.7579795256</v>
+        <v>691404.0403512319</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.730461528398613e-06</v>
+        <v>4.668784924388022e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.541666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>574634.1719548395</v>
+        <v>625417.4091317749</v>
       </c>
     </row>
     <row r="6">
@@ -26125,28 +26125,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>431.8454091784579</v>
+        <v>462.6192190042556</v>
       </c>
       <c r="AB6" t="n">
-        <v>590.8699405128201</v>
+        <v>632.9760247611483</v>
       </c>
       <c r="AC6" t="n">
-        <v>534.4781426814459</v>
+        <v>572.5656813453741</v>
       </c>
       <c r="AD6" t="n">
-        <v>431845.4091784579</v>
+        <v>462619.2190042556</v>
       </c>
       <c r="AE6" t="n">
-        <v>590869.9405128201</v>
+        <v>632976.0247611484</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.837515192449864e-06</v>
+        <v>4.851834759598892e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.256944444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>534478.1426814459</v>
+        <v>572565.6813453741</v>
       </c>
     </row>
     <row r="7">
@@ -26231,28 +26231,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>407.3551365724028</v>
+        <v>438.1289463982006</v>
       </c>
       <c r="AB7" t="n">
-        <v>557.3612690986416</v>
+        <v>599.4673533469697</v>
       </c>
       <c r="AC7" t="n">
-        <v>504.1674918373207</v>
+        <v>542.2550305012489</v>
       </c>
       <c r="AD7" t="n">
-        <v>407355.1365724028</v>
+        <v>438128.9463982006</v>
       </c>
       <c r="AE7" t="n">
-        <v>557361.2690986416</v>
+        <v>599467.3533469697</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.915358923235054e-06</v>
+        <v>4.984938864149732e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.063888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>504167.4918373207</v>
+        <v>542255.0305012489</v>
       </c>
     </row>
     <row r="8">
@@ -26337,28 +26337,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>377.4760739692307</v>
+        <v>418.4223602043213</v>
       </c>
       <c r="AB8" t="n">
-        <v>516.4794174737713</v>
+        <v>572.5039327232801</v>
       </c>
       <c r="AC8" t="n">
-        <v>467.187346753489</v>
+        <v>517.8649608984856</v>
       </c>
       <c r="AD8" t="n">
-        <v>377476.0739692307</v>
+        <v>418422.3602043213</v>
       </c>
       <c r="AE8" t="n">
-        <v>516479.4174737713</v>
+        <v>572503.93272328</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.968589207714832e-06</v>
+        <v>5.075956718499734e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.9375</v>
       </c>
       <c r="AH8" t="n">
-        <v>467187.3467534889</v>
+        <v>517864.9608984856</v>
       </c>
     </row>
     <row r="9">
@@ -26443,28 +26443,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>365.311564808037</v>
+        <v>406.2578510431276</v>
       </c>
       <c r="AB9" t="n">
-        <v>499.8353993791575</v>
+        <v>555.8599146286663</v>
       </c>
       <c r="AC9" t="n">
-        <v>452.131810385799</v>
+        <v>502.8094245307956</v>
       </c>
       <c r="AD9" t="n">
-        <v>365311.564808037</v>
+        <v>406257.8510431277</v>
       </c>
       <c r="AE9" t="n">
-        <v>499835.3993791575</v>
+        <v>555859.9146286662</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.002099080395695e-06</v>
+        <v>5.133254866363525e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.859722222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>452131.810385799</v>
+        <v>502809.4245307956</v>
       </c>
     </row>
     <row r="10">
@@ -26549,28 +26549,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>363.433676550476</v>
+        <v>404.3799627855667</v>
       </c>
       <c r="AB10" t="n">
-        <v>497.2659898185798</v>
+        <v>553.2905050680886</v>
       </c>
       <c r="AC10" t="n">
-        <v>449.8076216674938</v>
+        <v>500.4852358124904</v>
       </c>
       <c r="AD10" t="n">
-        <v>363433.6765504761</v>
+        <v>404379.9627855667</v>
       </c>
       <c r="AE10" t="n">
-        <v>497265.9898185798</v>
+        <v>553290.5050680885</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.004323186989557e-06</v>
+        <v>5.137057840779263e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.854166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>449807.6216674938</v>
+        <v>500485.2358124904</v>
       </c>
     </row>
   </sheetData>
@@ -26846,28 +26846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>254.4798695784327</v>
+        <v>287.0316729539759</v>
       </c>
       <c r="AB2" t="n">
-        <v>348.190584416542</v>
+        <v>392.729397879336</v>
       </c>
       <c r="AC2" t="n">
-        <v>314.9597637284857</v>
+        <v>355.2478553449032</v>
       </c>
       <c r="AD2" t="n">
-        <v>254479.8695784327</v>
+        <v>287031.672953976</v>
       </c>
       <c r="AE2" t="n">
-        <v>348190.584416542</v>
+        <v>392729.397879336</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.86851597542103e-06</v>
+        <v>6.148550946423973e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.225000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>314959.7637284857</v>
+        <v>355247.8553449032</v>
       </c>
     </row>
   </sheetData>
@@ -27143,28 +27143,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>570.0596334235114</v>
+        <v>626.1584155648444</v>
       </c>
       <c r="AB2" t="n">
-        <v>779.9807397061303</v>
+        <v>856.7375683355004</v>
       </c>
       <c r="AC2" t="n">
-        <v>705.5404726184202</v>
+        <v>774.9717372522887</v>
       </c>
       <c r="AD2" t="n">
-        <v>570059.6334235114</v>
+        <v>626158.4155648444</v>
       </c>
       <c r="AE2" t="n">
-        <v>779980.7397061303</v>
+        <v>856737.5683355004</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.269703151039813e-06</v>
+        <v>4.181774930503881e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.993055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>705540.4726184201</v>
+        <v>774971.7372522887</v>
       </c>
     </row>
     <row r="3">
@@ -27249,28 +27249,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>350.6501554522959</v>
+        <v>388.1631313526136</v>
       </c>
       <c r="AB3" t="n">
-        <v>479.7750122829017</v>
+        <v>531.1019208654121</v>
       </c>
       <c r="AC3" t="n">
-        <v>433.9859584790798</v>
+        <v>480.4142989442439</v>
       </c>
       <c r="AD3" t="n">
-        <v>350650.1554522959</v>
+        <v>388163.1313526136</v>
       </c>
       <c r="AE3" t="n">
-        <v>479775.0122829017</v>
+        <v>531101.9208654121</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.974014949761643e-06</v>
+        <v>5.479421903326619e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.626388888888887</v>
       </c>
       <c r="AH3" t="n">
-        <v>433985.9584790798</v>
+        <v>480414.2989442439</v>
       </c>
     </row>
     <row r="4">
@@ -27355,28 +27355,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>302.8741540021545</v>
+        <v>331.0089754359437</v>
       </c>
       <c r="AB4" t="n">
-        <v>414.4057793703902</v>
+        <v>452.9010832768213</v>
       </c>
       <c r="AC4" t="n">
-        <v>374.8554734094437</v>
+        <v>409.6768395395434</v>
       </c>
       <c r="AD4" t="n">
-        <v>302874.1540021545</v>
+        <v>331008.9754359437</v>
       </c>
       <c r="AE4" t="n">
-        <v>414405.7793703902</v>
+        <v>452901.0832768214</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.19642920198959e-06</v>
+        <v>5.889205157902222e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.095833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>374855.4734094437</v>
+        <v>409676.8395395434</v>
       </c>
     </row>
     <row r="5">
@@ -27461,28 +27461,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>302.3249142216535</v>
+        <v>330.4597356554427</v>
       </c>
       <c r="AB5" t="n">
-        <v>413.6542852719598</v>
+        <v>452.1495891783909</v>
       </c>
       <c r="AC5" t="n">
-        <v>374.1757008530389</v>
+        <v>408.9970669831386</v>
       </c>
       <c r="AD5" t="n">
-        <v>302324.9142216535</v>
+        <v>330459.7356554427</v>
       </c>
       <c r="AE5" t="n">
-        <v>413654.2852719598</v>
+        <v>452149.5891783909</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.200674995350769e-06</v>
+        <v>5.897027745728187e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.086111111111112</v>
       </c>
       <c r="AH5" t="n">
-        <v>374175.7008530389</v>
+        <v>408997.0669831386</v>
       </c>
     </row>
   </sheetData>
@@ -27758,28 +27758,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>827.8033194122625</v>
+        <v>886.0859048576767</v>
       </c>
       <c r="AB2" t="n">
-        <v>1132.637021724851</v>
+        <v>1212.381826377467</v>
       </c>
       <c r="AC2" t="n">
-        <v>1024.539734037475</v>
+        <v>1096.673806456581</v>
       </c>
       <c r="AD2" t="n">
-        <v>827803.3194122624</v>
+        <v>886085.9048576767</v>
       </c>
       <c r="AE2" t="n">
-        <v>1132637.021724851</v>
+        <v>1212381.826377467</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.883841812991092e-06</v>
+        <v>3.365345919372199e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.59166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1024539.734037474</v>
+        <v>1096673.806456581</v>
       </c>
     </row>
     <row r="3">
@@ -27864,28 +27864,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>453.4171131417754</v>
+        <v>492.1869187593643</v>
       </c>
       <c r="AB3" t="n">
-        <v>620.3852975518442</v>
+        <v>673.4318560009389</v>
       </c>
       <c r="AC3" t="n">
-        <v>561.1765954697291</v>
+        <v>609.1604648317548</v>
       </c>
       <c r="AD3" t="n">
-        <v>453417.1131417754</v>
+        <v>492186.9187593643</v>
       </c>
       <c r="AE3" t="n">
-        <v>620385.2975518443</v>
+        <v>673431.8560009389</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.680174543987576e-06</v>
+        <v>4.787936228303946e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.14722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>561176.5954697292</v>
+        <v>609160.4648317548</v>
       </c>
     </row>
     <row r="4">
@@ -27970,28 +27970,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>372.8164360732146</v>
+        <v>411.5009008362319</v>
       </c>
       <c r="AB4" t="n">
-        <v>510.1038953357265</v>
+        <v>563.0336866626234</v>
       </c>
       <c r="AC4" t="n">
-        <v>461.4202955001975</v>
+        <v>509.2985418302843</v>
       </c>
       <c r="AD4" t="n">
-        <v>372816.4360732146</v>
+        <v>411500.9008362319</v>
       </c>
       <c r="AE4" t="n">
-        <v>510103.8953357264</v>
+        <v>563033.6866626234</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.958930305499278e-06</v>
+        <v>5.285913053128424e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.379166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>461420.2955001976</v>
+        <v>509298.5418302842</v>
       </c>
     </row>
     <row r="5">
@@ -28076,28 +28076,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>335.8647729730504</v>
+        <v>365.0061552043086</v>
       </c>
       <c r="AB5" t="n">
-        <v>459.5449996897589</v>
+        <v>499.4175244856154</v>
       </c>
       <c r="AC5" t="n">
-        <v>415.6866698948256</v>
+        <v>451.7538168856054</v>
       </c>
       <c r="AD5" t="n">
-        <v>335864.7729730504</v>
+        <v>365006.1552043086</v>
       </c>
       <c r="AE5" t="n">
-        <v>459544.9996897589</v>
+        <v>499417.5244856154</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.101845695918982e-06</v>
+        <v>5.541220968393767e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.040277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>415686.6698948256</v>
+        <v>451753.8168856055</v>
       </c>
     </row>
     <row r="6">
@@ -28182,28 +28182,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>315.7424197195858</v>
+        <v>354.5121358286237</v>
       </c>
       <c r="AB6" t="n">
-        <v>432.0127082327965</v>
+        <v>485.0591442123429</v>
       </c>
       <c r="AC6" t="n">
-        <v>390.7820216927018</v>
+        <v>438.7657802735008</v>
       </c>
       <c r="AD6" t="n">
-        <v>315742.4197195858</v>
+        <v>354512.1358286237</v>
       </c>
       <c r="AE6" t="n">
-        <v>432012.7082327965</v>
+        <v>485059.1442123429</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.140050800288607e-06</v>
+        <v>5.609471599207274e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.954166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>390782.0216927018</v>
+        <v>438765.7802735008</v>
       </c>
     </row>
     <row r="7">
@@ -28288,28 +28288,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>317.3624102116022</v>
+        <v>356.1321263206401</v>
       </c>
       <c r="AB7" t="n">
-        <v>434.2292506929098</v>
+        <v>487.2756866724562</v>
       </c>
       <c r="AC7" t="n">
-        <v>392.7870204513587</v>
+        <v>440.7707790321577</v>
       </c>
       <c r="AD7" t="n">
-        <v>317362.4102116022</v>
+        <v>356132.1263206401</v>
       </c>
       <c r="AE7" t="n">
-        <v>434229.2506929098</v>
+        <v>487275.6866724562</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.139579132333426e-06</v>
+        <v>5.60862899882686e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.955555555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>392787.0204513588</v>
+        <v>440770.7790321577</v>
       </c>
     </row>
   </sheetData>
